--- a/TAP_POM_Framework/data/TC0017.xlsx
+++ b/TAP_POM_Framework/data/TC0017.xlsx
@@ -19,141 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>title</t>
+    <t>uname</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>airline</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>sys_admin@ltts.com</t>
+    <t>pwd</t>
   </si>
   <si>
     <t>Rajravi@1</t>
   </si>
   <si>
-    <t>Air Canada</t>
-  </si>
-  <si>
-    <t>Arcade &amp; Action</t>
-  </si>
-  <si>
-    <t>Apps</t>
-  </si>
-  <si>
-    <t>Afar</t>
-  </si>
-  <si>
-    <t>Add application in Coming Soon category</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>C:\Users\40004922\Downloads\cake.jpg</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>package name</t>
-  </si>
-  <si>
-    <t>activity name</t>
-  </si>
-  <si>
-    <t>launch code</t>
-  </si>
-  <si>
-    <t>monthly price</t>
-  </si>
-  <si>
-    <t>annual price</t>
-  </si>
-  <si>
-    <t>lang app</t>
-  </si>
-  <si>
-    <t>release date</t>
-  </si>
-  <si>
-    <t>coming soon</t>
-  </si>
-  <si>
-    <t>content rating</t>
-  </si>
-  <si>
-    <t>app resol</t>
-  </si>
-  <si>
-    <t>apk size</t>
-  </si>
-  <si>
-    <t>obb size</t>
-  </si>
-  <si>
-    <t>add video</t>
-  </si>
-  <si>
-    <t>add promo</t>
-  </si>
-  <si>
-    <t>add screenshots</t>
-  </si>
-  <si>
-    <t>creamaffairs</t>
-  </si>
-  <si>
-    <t>TPMU 2</t>
-  </si>
-  <si>
-    <t>PCU</t>
-  </si>
-  <si>
-    <t>2019-07-24</t>
-  </si>
-  <si>
-    <t>Low Maturity</t>
-  </si>
-  <si>
-    <t>1024*720</t>
-  </si>
-  <si>
-    <t>C:\Users\40004922\Downloads\tap.png</t>
+    <t>sys_admin@ltts.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,10 +75,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,187 +359,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="25" max="25" width="24.7109375" customWidth="1"/>
-    <col min="26" max="26" width="41.140625" customWidth="1"/>
-    <col min="27" max="27" width="37" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2">
-        <v>123.919</v>
-      </c>
-      <c r="J2">
-        <v>187.67500000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2">
-        <v>1204</v>
-      </c>
-      <c r="W2">
-        <v>2014</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="X2" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
